--- a/file/SST-3101-Wifi.xlsx
+++ b/file/SST-3101-Wifi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.6_SmartLife/SmartShopping/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62A3F7F-59A2-8046-9D83-EDB1F11F83E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670B1776-9842-AB4F-B700-E529574AFBC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="2380" windowWidth="34080" windowHeight="23000" xr2:uid="{7526E5EB-A80E-C547-84B3-9669579F2C10}"/>
+    <workbookView xWindow="14900" yWindow="4020" windowWidth="34080" windowHeight="23000" xr2:uid="{7526E5EB-A80E-C547-84B3-9669579F2C10}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,44 @@
   </si>
   <si>
     <t>https://www.netgearstore.com.tw/products/rax80</t>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP-Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deco M4 AC1200 Mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$1,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>867 Mbps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3101-Wifi-05.jpg</t>
+  </si>
+  <si>
+    <t>Deco提供無縫的全家Wi-Fi覆蓋 — 讓您無須再煩惱訊號死角。
+先進的Mesh技術讓每台Deco整合成一個同一無線網路名稱，並讓您在家中移動時達到設備無縫漫遊，再也不用斷線重連網路。
+Deco M4兩入組提供約106坪Wi-Fi覆蓋範圍，並能依您的需求擴增Deco來擴大覆蓋範圍。
+能與一般的網路供應商(ISP)共同運作，並提供高達1167Mbps穩定而快速的無線連接。&lt;br&gt;&lt;br&gt;
+Deco可處理大流量網路使用，為高達100個設備提供無延遲的網路連接。
+您可為每一位家庭成員建立獨特的個人檔案，限制上網時間及可用網站。
+使用Deco App，帶您一步一步設定，輕鬆又方便。
+目前有 3入/2入 兩種不同包裝。&lt;br&gt;&lt;br&gt;
+本項為今網寬頻 可加購產品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tp-link.com/tw/home-networking/deco/deco-m4/</t>
   </si>
 </sst>
 </file>
@@ -628,13 +666,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFADAA0-EEE8-4A4A-A1AC-B22BA9485672}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.33203125" defaultRowHeight="15"/>
@@ -841,6 +879,44 @@
         <v>50</v>
       </c>
     </row>
+    <row r="6" spans="1:12" ht="256">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
